--- a/electricity-and-magnetism/3-3-4/data/3-3-4.xlsx
+++ b/electricity-and-magnetism/3-3-4/data/3-3-4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Калибровочная кривая и U0" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">при I = 0.3 mA</t>
   </si>
@@ -45,43 +45,28 @@
     <t>0,81</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>1,08</t>
   </si>
   <si>
-    <t>5,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imax, A</t>
   </si>
   <si>
     <t>1,35</t>
   </si>
   <si>
-    <t>6,8</t>
-  </si>
-  <si>
     <t>2,17</t>
   </si>
   <si>
     <t>1,62</t>
   </si>
   <si>
-    <t>7,5</t>
-  </si>
-  <si>
     <t>1,89</t>
   </si>
   <si>
-    <t>8,1</t>
-  </si>
-  <si>
     <t>2,13</t>
   </si>
   <si>
-    <t>8,35</t>
+    <t xml:space="preserve">B, T</t>
   </si>
   <si>
     <t xml:space="preserve">I, mA</t>
@@ -97,9 +82,6 @@
   </si>
   <si>
     <t>0,3</t>
-  </si>
-  <si>
-    <t>-0,04</t>
   </si>
   <si>
     <t>-0,065</t>
@@ -376,6 +358,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -404,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -431,6 +416,32 @@
       <left style="thin">
         <color theme="1"/>
       </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -695,9 +706,6 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,112 +721,109 @@
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1333,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1354,128 +1359,227 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5.7000000000000002</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.7999999999999998</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="C11" s="8">
+        <v>8.3499999999999996</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="B9" s="6" t="s">
+      <c r="C31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" t="str">
+        <f>B4</f>
+        <v>0,27</v>
+      </c>
+      <c r="C32" s="12">
+        <f>C4/7.2</f>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" t="str">
+        <f>B5</f>
+        <v>0,54</v>
+      </c>
+      <c r="C33" s="13">
+        <f>C5/7.2</f>
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" t="str">
+        <f>B6</f>
+        <v>0,81</v>
+      </c>
+      <c r="C34">
+        <f>C6/7.2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" t="str">
+        <f>B7</f>
+        <v>1,08</v>
+      </c>
+      <c r="C35" s="12">
+        <f>C7/7.2</f>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" t="str">
+        <f>B8</f>
+        <v>1,35</v>
+      </c>
+      <c r="C36" s="12">
+        <f>C8/7.2</f>
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" t="str">
+        <f>B9</f>
+        <v>1,62</v>
+      </c>
+      <c r="C37" s="12">
+        <f>C9/7.2</f>
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" t="str">
+        <f>B10</f>
+        <v>1,89</v>
+      </c>
+      <c r="C38">
+        <f>C10/7.2</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" t="str">
+        <f>B11</f>
+        <v>2,13</v>
+      </c>
+      <c r="C39" s="12">
+        <f>C11/7.2</f>
+        <v>1.1597222222222221</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25"/>
+    <row r="42" ht="14.25"/>
+    <row r="43" ht="14.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1483,7 +1587,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1496,713 +1600,1081 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="str">
+        <f>A1</f>
+        <v xml:space="preserve">I, mA</v>
+      </c>
+      <c r="H1" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">Iм, A</v>
+      </c>
+      <c r="I1" t="str">
+        <f>D1</f>
+        <v xml:space="preserve">U34, mV</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18">
+        <v>-0.040000000000000001</v>
+      </c>
+      <c r="G2" s="19" t="str">
+        <f>A2</f>
+        <v>0,3</v>
+      </c>
+      <c r="H2" s="20" t="str">
+        <f>C2</f>
+        <v>0,27</v>
+      </c>
+      <c r="I2" s="12" t="e">
+        <f>D2-B2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20" t="str">
+        <f>C3</f>
+        <v>0,54</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20" t="str">
+        <f>C4</f>
+        <v>0,81</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20" t="str">
+        <f>C5</f>
+        <v>1,08</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="12" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="20" t="str">
+        <f>C6</f>
+        <v>1,35</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="20" t="str">
+        <f>C7</f>
+        <v>1,62</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="str">
+        <f>C8</f>
+        <v>1,89</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="str">
+        <f>C9</f>
+        <v>2,11</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="D10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="19" t="str">
+        <f>A10</f>
+        <v>0,4</v>
+      </c>
+      <c r="H10" s="20" t="str">
+        <f>C10</f>
+        <v>0,27</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+      <c r="D11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20" t="str">
+        <f>C11</f>
+        <v>0,54</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="D12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="str">
+        <f>C12</f>
+        <v>0,81</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20" t="str">
+        <f>C13</f>
+        <v>1,08</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20" t="str">
+        <f>C14</f>
+        <v>1,35</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="str">
+        <f>C15</f>
+        <v>1,62</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="str">
+        <f>C16</f>
+        <v>1,89</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20" t="str">
+        <f>C17</f>
+        <v>2,08</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="G18" s="19" t="str">
+        <f>A18</f>
+        <v>0,5</v>
+      </c>
+      <c r="H18" s="20" t="str">
+        <f>C18</f>
+        <v>0,27</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20" t="str">
+        <f>C19</f>
+        <v>0,54</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20" t="str">
+        <f>C20</f>
+        <v>0,81</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20" t="str">
+        <f>C21</f>
+        <v>1,08</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20" t="str">
+        <f>C22</f>
+        <v>1,35</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20" t="str">
+        <f>C23</f>
+        <v>1,62</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20" t="str">
+        <f>C24</f>
+        <v>1,89</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="str">
+        <f>C25</f>
+        <v>2,07</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="19" t="str">
+        <f>A26</f>
+        <v>0,6</v>
+      </c>
+      <c r="H26" s="20" t="str">
+        <f>C26</f>
+        <v>0,27</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20" t="str">
+        <f>C27</f>
+        <v>0,54</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20" t="str">
+        <f>C28</f>
+        <v>0,81</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20" t="str">
+        <f>C29</f>
+        <v>1,08</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20" t="str">
+        <f>C30</f>
+        <v>1,35</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20" t="str">
+        <f>C31</f>
+        <v>1,62</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20" t="str">
+        <f>C32</f>
+        <v>1,89</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20" t="str">
+        <f>C33</f>
+        <v>2,06</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="19" t="str">
+        <f>A34</f>
+        <v>0,7</v>
+      </c>
+      <c r="H34" s="20" t="str">
+        <f>C34</f>
+        <v>0,27</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="G35" s="19"/>
+      <c r="H35" s="20" t="str">
+        <f>C35</f>
+        <v>0,54</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20" t="str">
+        <f>C36</f>
+        <v>0,81</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20" t="str">
+        <f>C37</f>
+        <v>1,08</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20" t="str">
+        <f>C38</f>
+        <v>1,35</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20" t="str">
+        <f>C39</f>
+        <v>1,62</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20" t="str">
+        <f>C40</f>
+        <v>1,89</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20" t="str">
+        <f>C41</f>
+        <v>2,04</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="D42" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="19" t="str">
+        <f>A42</f>
+        <v>0,8</v>
+      </c>
+      <c r="H42" s="20" t="str">
+        <f>C42</f>
+        <v>0,27</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="D43" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20" t="str">
+        <f>C43</f>
+        <v>0,54</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="D44" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20" t="str">
+        <f>C44</f>
+        <v>0,81</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20" t="str">
+        <f>C45</f>
+        <v>1,08</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20" t="str">
+        <f>C46</f>
+        <v>1,35</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="D47" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20" t="str">
+        <f>C47</f>
+        <v>1,62</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20" t="str">
+        <f>C48</f>
+        <v>1,89</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20" t="str">
+        <f>C49</f>
+        <v>2,04</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="7" t="s">
+      <c r="D50" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" s="19" t="str">
+        <f>A50</f>
+        <v>0,9</v>
+      </c>
+      <c r="H50" s="20" t="str">
+        <f>C50</f>
+        <v>0,27</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="7" t="s">
+      <c r="D51" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20" t="str">
+        <f>C51</f>
+        <v>0,54</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="7" t="s">
+      <c r="D52" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20" t="str">
+        <f>C52</f>
+        <v>0,81</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20" t="str">
+        <f>C53</f>
+        <v>1,08</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20" t="str">
+        <f>C54</f>
+        <v>1,35</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="D55" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20" t="str">
+        <f>C55</f>
+        <v>1,62</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20" t="str">
+        <f>C56</f>
+        <v>1,89</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20" t="str">
+        <f>C57</f>
+        <v>2,03</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="15">
+        <v>1</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="7" t="s">
+      <c r="D58" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="19">
+        <f>A58</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="20" t="str">
+        <f>C58</f>
+        <v>0,27</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="7" t="s">
+      <c r="D59" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20" t="str">
+        <f>C59</f>
+        <v>0,54</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="7" t="s">
+      <c r="D60" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20" t="str">
+        <f>C60</f>
+        <v>0,81</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20" t="str">
+        <f>C61</f>
+        <v>1,08</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20" t="str">
+        <f>C62</f>
+        <v>1,35</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="31" t="s">
+      <c r="D63" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20" t="str">
+        <f>C63</f>
+        <v>1,62</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20" t="str">
+        <f>C64</f>
+        <v>1,89</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="44"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58" s="44">
-        <v>1</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="31" t="s">
+      <c r="D65" s="36" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>104</v>
+      <c r="G65" s="19"/>
+      <c r="H65" s="20" t="str">
+        <f>C65</f>
+        <v>2,03</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
+    <mergeCell ref="G2:G9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
+    <mergeCell ref="G10:G17"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:B25"/>
+    <mergeCell ref="G18:G25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="B26:B33"/>
+    <mergeCell ref="G26:G33"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="B34:B41"/>
+    <mergeCell ref="G34:G41"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="B42:B49"/>
+    <mergeCell ref="G42:G49"/>
     <mergeCell ref="A50:A57"/>
     <mergeCell ref="B50:B57"/>
+    <mergeCell ref="G50:G57"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="B58:B65"/>
+    <mergeCell ref="G58:G65"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2214,7 +2686,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.57421875"/>
     <col customWidth="1" min="2" max="2" width="13.421875"/>
@@ -2222,84 +2694,84 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="5"/>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="35" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2780,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2320,25 +2792,25 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/electricity-and-magnetism/3-3-4/data/3-3-4.xlsx
+++ b/electricity-and-magnetism/3-3-4/data/3-3-4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">при I = 0.3 mA</t>
   </si>
@@ -69,256 +69,28 @@
     <t xml:space="preserve">B, T</t>
   </si>
   <si>
-    <t xml:space="preserve">I, mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U0, mV</t>
+    <t xml:space="preserve">I. mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U0. mV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iм. A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U34. mV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = Imax = 1mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U0 = -0,063mV</t>
   </si>
   <si>
     <t xml:space="preserve">Iм, A</t>
   </si>
   <si>
     <t xml:space="preserve">U34, mV</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>-0,065</t>
-  </si>
-  <si>
-    <t>-0,089</t>
-  </si>
-  <si>
-    <t>-0,111</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>-0,140</t>
-  </si>
-  <si>
-    <t>-0,150</t>
-  </si>
-  <si>
-    <t>2,11</t>
-  </si>
-  <si>
-    <t>-0,155</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>0,013</t>
-  </si>
-  <si>
-    <t>0,044</t>
-  </si>
-  <si>
-    <t>0,074</t>
-  </si>
-  <si>
-    <t>0,102</t>
-  </si>
-  <si>
-    <t>0,123</t>
-  </si>
-  <si>
-    <t>0,138</t>
-  </si>
-  <si>
-    <t>0,148</t>
-  </si>
-  <si>
-    <t>2,08</t>
-  </si>
-  <si>
-    <t>0,153</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>-0,025</t>
-  </si>
-  <si>
-    <t>0,052</t>
-  </si>
-  <si>
-    <t>0,094</t>
-  </si>
-  <si>
-    <t>0,127</t>
-  </si>
-  <si>
-    <t>0,152</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>2,07</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>-0,03</t>
-  </si>
-  <si>
-    <t>0,016</t>
-  </si>
-  <si>
-    <t>0,064</t>
-  </si>
-  <si>
-    <t>0,110</t>
-  </si>
-  <si>
-    <t>0,151</t>
-  </si>
-  <si>
-    <t>0,184</t>
-  </si>
-  <si>
-    <t>0,205</t>
-  </si>
-  <si>
-    <t>0,220</t>
-  </si>
-  <si>
-    <t>2,06</t>
-  </si>
-  <si>
-    <t>0,228</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>-0,037</t>
-  </si>
-  <si>
-    <t>0,017</t>
-  </si>
-  <si>
-    <t>0,128</t>
-  </si>
-  <si>
-    <t>0,175</t>
-  </si>
-  <si>
-    <t>0,214</t>
-  </si>
-  <si>
-    <t>0,240</t>
-  </si>
-  <si>
-    <t>0,257</t>
-  </si>
-  <si>
-    <t>2,04</t>
-  </si>
-  <si>
-    <t>0,265</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>-0,042</t>
-  </si>
-  <si>
-    <t>0,019</t>
-  </si>
-  <si>
-    <t>0,086</t>
-  </si>
-  <si>
-    <t>0,145</t>
-  </si>
-  <si>
-    <t>0,203</t>
-  </si>
-  <si>
-    <t>0,270</t>
-  </si>
-  <si>
-    <t>0,292</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>-0,05</t>
-  </si>
-  <si>
-    <t>0,022</t>
-  </si>
-  <si>
-    <t>0,096</t>
-  </si>
-  <si>
-    <t>0,165</t>
-  </si>
-  <si>
-    <t>0,222</t>
-  </si>
-  <si>
-    <t>0,275</t>
-  </si>
-  <si>
-    <t>0,306</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>2,03</t>
-  </si>
-  <si>
-    <t>0,339</t>
-  </si>
-  <si>
-    <t>-0,055</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>0,103</t>
-  </si>
-  <si>
-    <t>0,180</t>
-  </si>
-  <si>
-    <t>0,250</t>
-  </si>
-  <si>
-    <t>0,302</t>
-  </si>
-  <si>
-    <t>0,340</t>
-  </si>
-  <si>
-    <t>0,365</t>
-  </si>
-  <si>
-    <t>0,375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I = Imax = 1mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U0 = -0,063mV</t>
   </si>
   <si>
     <t>-0,141</t>
@@ -389,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -611,6 +383,19 @@
         <color theme="1"/>
       </top>
       <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -712,9 +497,6 @@
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,9 +507,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
@@ -747,10 +526,7 @@
     <xf fontId="0" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,6 +539,10 @@
     <xf fontId="0" fillId="0" borderId="12" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,6 +555,7 @@
     <xf fontId="0" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,13 +580,13 @@
     <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -814,13 +595,13 @@
     <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,10 +1154,10 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1.5</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" s="5" t="s">
@@ -1385,7 +1166,7 @@
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="14.25">
       <c r="B6" s="5" t="s">
@@ -1394,7 +1175,7 @@
       <c r="C6" s="5">
         <v>4.5</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" s="5" t="s">
@@ -1438,133 +1219,133 @@
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>8.3499999999999996</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" t="str">
-        <f>B4</f>
+        <f t="shared" ref="B32:B37" si="0">B4</f>
         <v>0,27</v>
       </c>
-      <c r="C32" s="12">
-        <f>C4/7.2</f>
+      <c r="C32" s="10">
+        <f t="shared" ref="C32:C37" si="1">C4/7.2</f>
         <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>0,54</v>
       </c>
-      <c r="C33" s="13">
-        <f>C5/7.2</f>
+      <c r="C33" s="11">
+        <f t="shared" si="1"/>
         <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>0,81</v>
       </c>
       <c r="C34">
-        <f>C6/7.2</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>1,08</v>
       </c>
-      <c r="C35" s="12">
-        <f>C7/7.2</f>
+      <c r="C35" s="10">
+        <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" t="str">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>1,35</v>
       </c>
-      <c r="C36" s="12">
-        <f>C8/7.2</f>
+      <c r="C36" s="10">
+        <f t="shared" si="1"/>
         <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" t="str">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>1,62</v>
       </c>
-      <c r="C37" s="12">
-        <f>C9/7.2</f>
+      <c r="C37" s="10">
+        <f t="shared" si="1"/>
         <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="B38" t="str">
-        <f>B10</f>
+        <f t="shared" ref="B38:B39" si="2">B10</f>
         <v>1,89</v>
       </c>
       <c r="C38">
-        <f>C10/7.2</f>
+        <f t="shared" ref="C38:C39" si="3">C10/7.2</f>
         <v>1.125</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="B39" t="str">
-        <f>B11</f>
+        <f t="shared" si="2"/>
         <v>2,13</v>
       </c>
-      <c r="C39" s="12">
-        <f>C11/7.2</f>
+      <c r="C39" s="10">
+        <f t="shared" si="3"/>
         <v>1.1597222222222221</v>
       </c>
     </row>
@@ -1587,7 +1368,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1600,1077 +1381,1157 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="str">
-        <f>A1</f>
-        <v xml:space="preserve">I, mA</v>
-      </c>
-      <c r="H1" t="str">
-        <f>C1</f>
-        <v xml:space="preserve">Iм, A</v>
-      </c>
-      <c r="I1" t="str">
-        <f>D1</f>
-        <v xml:space="preserve">U34, mV</v>
-      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="A2" s="13">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="B2" s="14">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="D2" s="16">
         <v>-0.040000000000000001</v>
       </c>
-      <c r="G2" s="19" t="str">
-        <f>A2</f>
-        <v>0,3</v>
-      </c>
-      <c r="H2" s="20" t="str">
-        <f>C2</f>
-        <v>0,27</v>
-      </c>
-      <c r="I2" s="12" t="e">
-        <f>D2-B2</f>
-        <v>#VALUE!</v>
+      <c r="F2" s="10">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="G2" s="17">
+        <f t="shared" ref="G2:G9" si="4">D2-B2</f>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20" t="str">
-        <f>C3</f>
-        <v>0,54</v>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D3" s="21">
+        <v>-0.065000000000000002</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.065000000000000002</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20" t="str">
-        <f>C4</f>
-        <v>0,81</v>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="D4" s="21">
+        <v>-0.088999999999999996</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.088999999999999996</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20" t="str">
-        <f>C5</f>
-        <v>1,08</v>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20">
+        <v>1.0800000000000001</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-0.111</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.111</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="str">
-        <f>C6</f>
-        <v>1,35</v>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="D6" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="str">
-        <f>C7</f>
-        <v>1,62</v>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20">
+        <v>1.6200000000000001</v>
+      </c>
+      <c r="D7" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="str">
-        <f>C8</f>
-        <v>1,89</v>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="D8" s="21">
+        <v>-0.14999999999999999</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1.125</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.14999999999999999</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="str">
-        <f>C9</f>
-        <v>2,11</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26">
+        <v>2.1099999999999999</v>
+      </c>
+      <c r="D9" s="27">
+        <v>-0.155</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="4"/>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="19" t="str">
-        <f>A10</f>
-        <v>0,4</v>
-      </c>
-      <c r="H10" s="20" t="str">
-        <f>C10</f>
-        <v>0,27</v>
+      <c r="A10" s="13">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="B10" s="14">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.012999999999999999</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" ref="G10:G65" si="5">D10-B10</f>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="str">
-        <f>C11</f>
-        <v>0,54</v>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0.043999999999999997</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="5"/>
+        <v>0.043999999999999997</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20" t="str">
-        <f>C12</f>
-        <v>0,81</v>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0.073999999999999996</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="5"/>
+        <v>0.073999999999999996</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20" t="str">
-        <f>C13</f>
-        <v>1,08</v>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20">
+        <v>1.0800000000000001</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="5"/>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20" t="str">
-        <f>C14</f>
-        <v>1,35</v>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0.123</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="5"/>
+        <v>0.123</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20" t="str">
-        <f>C15</f>
-        <v>1,62</v>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20">
+        <v>1.6200000000000001</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="5"/>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20" t="str">
-        <f>C16</f>
-        <v>1,89</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="D16" s="30">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1.125</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="5"/>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20" t="str">
-        <f>C17</f>
-        <v>2,08</v>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="D17" s="31">
+        <v>0.153</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="5"/>
+        <v>0.153</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="19" t="str">
-        <f>A18</f>
-        <v>0,5</v>
-      </c>
-      <c r="H18" s="20" t="str">
-        <f>C18</f>
-        <v>0,27</v>
+      <c r="A18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="14">
+        <v>-0.025000000000000001</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.012999999999999999</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="5"/>
+        <v>0.037999999999999999</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20" t="str">
-        <f>C19</f>
-        <v>0,54</v>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="5">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0.051999999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="5"/>
+        <v>0.051999999999999998</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20" t="str">
-        <f>C20</f>
-        <v>0,81</v>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="5">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0.094</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="5"/>
+        <v>0.094</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20" t="str">
-        <f>C21</f>
-        <v>1,08</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="5">
+        <v>1.0800000000000001</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0.127</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="5"/>
+        <v>0.127</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20" t="str">
-        <f>C22</f>
-        <v>1,35</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="5">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="D22" s="34">
+        <v>0.152</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="5"/>
+        <v>0.152</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20" t="str">
-        <f>C23</f>
-        <v>1,62</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="5">
+        <v>1.6200000000000001</v>
+      </c>
+      <c r="D23" s="34">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="5"/>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20" t="str">
-        <f>C24</f>
-        <v>1,89</v>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="5">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0.183</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1.125</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="5"/>
+        <v>0.183</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20" t="str">
-        <f>C25</f>
-        <v>2,07</v>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="35">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0.19</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G25" s="28">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="19" t="str">
-        <f>A26</f>
-        <v>0,6</v>
-      </c>
-      <c r="H26" s="20" t="str">
-        <f>C26</f>
-        <v>0,27</v>
+      <c r="A26" s="37">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B26" s="13">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0.016</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="5"/>
+        <v>0.045999999999999999</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20" t="str">
-        <f>C27</f>
-        <v>0,54</v>
+      <c r="B27" s="18"/>
+      <c r="C27" s="5">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0.064000000000000001</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="5"/>
+        <v>0.064000000000000001</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20" t="str">
-        <f>C28</f>
-        <v>0,81</v>
+      <c r="B28" s="18"/>
+      <c r="C28" s="5">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0.11</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="5"/>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20" t="str">
-        <f>C29</f>
-        <v>1,08</v>
+      <c r="B29" s="18"/>
+      <c r="C29" s="5">
+        <v>1.0800000000000001</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0.151</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="5"/>
+        <v>0.151</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="38"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20" t="str">
-        <f>C30</f>
-        <v>1,35</v>
+      <c r="B30" s="18"/>
+      <c r="C30" s="5">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0.184</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="5"/>
+        <v>0.184</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20" t="str">
-        <f>C31</f>
-        <v>1,62</v>
+      <c r="B31" s="18"/>
+      <c r="C31" s="5">
+        <v>1.6200000000000001</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="5"/>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="38"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20" t="str">
-        <f>C32</f>
-        <v>1,89</v>
+      <c r="B32" s="18"/>
+      <c r="C32" s="5">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="D32" s="34">
+        <v>0.22</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1.125</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="5"/>
+        <v>0.22</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="39"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20" t="str">
-        <f>C33</f>
-        <v>2,06</v>
+      <c r="B33" s="24"/>
+      <c r="C33" s="35">
+        <v>2.0600000000000001</v>
+      </c>
+      <c r="D33" s="36">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G33" s="28">
+        <f t="shared" si="5"/>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="19" t="str">
-        <f>A34</f>
-        <v>0,7</v>
-      </c>
-      <c r="H34" s="20" t="str">
-        <f>C34</f>
-        <v>0,27</v>
+      <c r="A34" s="37">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="B34" s="37">
+        <v>-0.036999999999999998</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="D34" s="33">
+        <v>0.017000000000000001</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="5"/>
+        <v>0.053999999999999999</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20" t="str">
-        <f>C35</f>
-        <v>0,54</v>
+      <c r="C35" s="5">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D35" s="34">
+        <v>0.073999999999999996</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="5"/>
+        <v>0.073999999999999996</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
-      <c r="C36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20" t="str">
-        <f>C36</f>
-        <v>0,81</v>
+      <c r="C36" s="5">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="D36" s="34">
+        <v>0.128</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="5"/>
+        <v>0.128</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20" t="str">
-        <f>C37</f>
-        <v>1,08</v>
+      <c r="C37" s="5">
+        <v>1.0800000000000001</v>
+      </c>
+      <c r="D37" s="34">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
-      <c r="C38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20" t="str">
-        <f>C38</f>
-        <v>1,35</v>
+      <c r="C38" s="5">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="D38" s="34">
+        <v>0.214</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="5"/>
+        <v>0.214</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
-      <c r="C39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20" t="str">
-        <f>C39</f>
-        <v>1,62</v>
+      <c r="C39" s="5">
+        <v>1.6200000000000001</v>
+      </c>
+      <c r="D39" s="34">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="5"/>
+        <v>0.23999999999999999</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
-      <c r="C40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20" t="str">
-        <f>C40</f>
-        <v>1,89</v>
+      <c r="C40" s="5">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="D40" s="34">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1.125</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="5"/>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
-      <c r="C41" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20" t="str">
-        <f>C41</f>
-        <v>2,04</v>
+      <c r="C41" s="35">
+        <v>2.04</v>
+      </c>
+      <c r="D41" s="36">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G41" s="28">
+        <f t="shared" si="5"/>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="19" t="str">
-        <f>A42</f>
-        <v>0,8</v>
-      </c>
-      <c r="H42" s="20" t="str">
-        <f>C42</f>
-        <v>0,27</v>
+      <c r="A42" s="37">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="B42" s="37">
+        <v>-0.042000000000000003</v>
+      </c>
+      <c r="C42" s="32">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="D42" s="33">
+        <v>0.019</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="5"/>
+        <v>0.060999999999999999</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20" t="str">
-        <f>C43</f>
-        <v>0,54</v>
+      <c r="C43" s="5">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D43" s="34">
+        <v>0.085999999999999993</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="5"/>
+        <v>0.085999999999999993</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20" t="str">
-        <f>C44</f>
-        <v>0,81</v>
+      <c r="C44" s="5">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="D44" s="34">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="shared" si="5"/>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20" t="str">
-        <f>C45</f>
-        <v>1,08</v>
+      <c r="C45" s="5">
+        <v>1.0800000000000001</v>
+      </c>
+      <c r="D45" s="40">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="5"/>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20" t="str">
-        <f>C46</f>
-        <v>1,35</v>
+      <c r="C46" s="5">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="D46" s="40">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="5"/>
+        <v>0.23999999999999999</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20" t="str">
-        <f>C47</f>
-        <v>1,62</v>
+      <c r="C47" s="5">
+        <v>1.6200000000000001</v>
+      </c>
+      <c r="D47" s="40">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="5"/>
+        <v>0.27000000000000002</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20" t="str">
-        <f>C48</f>
-        <v>1,89</v>
+      <c r="C48" s="5">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="D48" s="40">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1.125</v>
+      </c>
+      <c r="G48" s="22">
+        <f t="shared" si="5"/>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20" t="str">
-        <f>C49</f>
-        <v>2,04</v>
+      <c r="C49" s="35">
+        <v>2.04</v>
+      </c>
+      <c r="D49" s="41">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G49" s="28">
+        <f t="shared" si="5"/>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="19" t="str">
-        <f>A50</f>
-        <v>0,9</v>
-      </c>
-      <c r="H50" s="20" t="str">
-        <f>C50</f>
-        <v>0,27</v>
+      <c r="A50" s="42">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="B50" s="32">
+        <v>-0.050000000000000003</v>
+      </c>
+      <c r="C50" s="32">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="D50" s="33">
+        <v>0.021999999999999999</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" si="5"/>
+        <v>0.072000000000000008</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="43"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20" t="str">
-        <f>C51</f>
-        <v>0,54</v>
+      <c r="C51" s="5">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D51" s="34">
+        <v>0.096000000000000002</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G51" s="22">
+        <f t="shared" si="5"/>
+        <v>0.096000000000000002</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="43"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20" t="str">
-        <f>C52</f>
-        <v>0,81</v>
+      <c r="C52" s="5">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="G52" s="22">
+        <f t="shared" si="5"/>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="43"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20" t="str">
-        <f>C53</f>
-        <v>1,08</v>
+      <c r="C53" s="5">
+        <v>1.0800000000000001</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0.222</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="G53" s="22">
+        <f t="shared" si="5"/>
+        <v>0.222</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" s="43"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20" t="str">
-        <f>C54</f>
-        <v>1,35</v>
+      <c r="C54" s="5">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="D54" s="34">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="G54" s="22">
+        <f t="shared" si="5"/>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="43"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20" t="str">
-        <f>C55</f>
-        <v>1,62</v>
+      <c r="C55" s="5">
+        <v>1.6200000000000001</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="G55" s="22">
+        <f t="shared" si="5"/>
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="43"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20" t="str">
-        <f>C56</f>
-        <v>1,89</v>
+      <c r="C56" s="5">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="D56" s="34">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F56" s="10">
+        <v>1.125</v>
+      </c>
+      <c r="G56" s="22">
+        <f t="shared" si="5"/>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="44"/>
       <c r="B57" s="35"/>
-      <c r="C57" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20" t="str">
-        <f>C57</f>
-        <v>2,03</v>
+      <c r="C57" s="35">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D57" s="36">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F57" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G57" s="28">
+        <f t="shared" si="5"/>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="15">
+      <c r="A58" s="13">
         <v>1</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="19">
-        <f>A58</f>
-        <v>1</v>
-      </c>
-      <c r="H58" s="20" t="str">
-        <f>C58</f>
-        <v>0,27</v>
+      <c r="B58" s="14">
+        <v>-0.055</v>
+      </c>
+      <c r="C58" s="32">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="D58" s="33">
+        <v>0.027</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="G58" s="17">
+        <f t="shared" si="5"/>
+        <v>0.082000000000000003</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="43"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20" t="str">
-        <f>C59</f>
-        <v>0,54</v>
+      <c r="C59" s="5">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D59" s="34">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G59" s="22">
+        <f t="shared" si="5"/>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="43"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20" t="str">
-        <f>C60</f>
-        <v>0,81</v>
+      <c r="C60" s="5">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="D60" s="34">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="G60" s="22">
+        <f t="shared" si="5"/>
+        <v>0.17999999999999999</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="43"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20" t="str">
-        <f>C61</f>
-        <v>1,08</v>
+      <c r="C61" s="5">
+        <v>1.0800000000000001</v>
+      </c>
+      <c r="D61" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="G61" s="22">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" s="43"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20" t="str">
-        <f>C62</f>
-        <v>1,35</v>
+      <c r="C62" s="5">
+        <v>1.3500000000000001</v>
+      </c>
+      <c r="D62" s="34">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="G62" s="22">
+        <f t="shared" si="5"/>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" s="43"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20" t="str">
-        <f>C63</f>
-        <v>1,62</v>
+      <c r="C63" s="5">
+        <v>1.6200000000000001</v>
+      </c>
+      <c r="D63" s="34">
+        <v>0.34000000000000002</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="G63" s="22">
+        <f t="shared" si="5"/>
+        <v>0.34000000000000002</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" s="43"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="20" t="str">
-        <f>C64</f>
-        <v>1,89</v>
+      <c r="C64" s="5">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="D64" s="34">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1.125</v>
+      </c>
+      <c r="G64" s="22">
+        <f t="shared" si="5"/>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="44"/>
       <c r="B65" s="35"/>
-      <c r="C65" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="20" t="str">
-        <f>C65</f>
-        <v>2,03</v>
+      <c r="C65" s="35">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D65" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G65" s="28">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="16">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="G2:G9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="G10:G17"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:B25"/>
-    <mergeCell ref="G18:G25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="B26:B33"/>
-    <mergeCell ref="G26:G33"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="B34:B41"/>
-    <mergeCell ref="G34:G41"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="B42:B49"/>
-    <mergeCell ref="G42:G49"/>
     <mergeCell ref="A50:A57"/>
     <mergeCell ref="B50:B57"/>
-    <mergeCell ref="G50:G57"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="B58:B65"/>
-    <mergeCell ref="G58:G65"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2695,19 +2556,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2715,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -2723,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -2731,7 +2592,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -2739,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -2747,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -2755,7 +2616,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -2763,15 +2624,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2799,12 +2660,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
